--- a/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,23%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,82%</t>
+          <t>-33,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-14,15%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 11,14</t>
+          <t>-16,15; 16,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 3,99</t>
+          <t>-23,84; 9,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 4,24</t>
+          <t>-18,81; 13,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 133,19</t>
+          <t>-10,5; 33,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 31,95</t>
+          <t>-64,39; 256,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,36; 39,82</t>
+          <t>-76,56; 99,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-79,62; 238,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,92; 616,82</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,74%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 4,4</t>
+          <t>-8,93; 9,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 6,4</t>
+          <t>-9,02; 9,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 6,53</t>
+          <t>-12,21; 7,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 22,86</t>
+          <t>-14,36; 5,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 27,31</t>
+          <t>-34,21; 56,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 33,02</t>
+          <t>-30,5; 52,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-44,8; 47,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-45,03; 30,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-13,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,92%</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,38%</t>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-52,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-16,47%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 3,68</t>
+          <t>-14,09; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 5,57</t>
+          <t>-7,06; 10,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; -0,97</t>
+          <t>-23,46; -5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 27,52</t>
+          <t>-12,57; 5,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 32,44</t>
+          <t>-54,03; 29,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,14; -5,66</t>
+          <t>-32,28; 91,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-75,16; -23,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-47,72; 36,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 11,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 11,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 2,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,46</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-29,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-9,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 4,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 5,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; -0,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 5,52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-34,71; 25,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 34,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; -2,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 29,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-33,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-14,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>45,75%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.059505227885164</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.082595361695383</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.362128140554189</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.565053025521602</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1009345489352539</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4035295342921681</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.09213772436660256</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3223979036055723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; 16,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,84; 9,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,81; 13,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 33,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-64,39; 256,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-76,56; 99,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-79,62; 238,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,92; 616,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.89038823195222</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.96553848905582</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.64419228331648</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.5393223676685</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7538997060889858</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7955378016815143</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7838886453706585</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.48681337470491</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.20735906190941</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.203055106744043</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.19042874886918</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>29.37949296692249</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.604804758513906</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7940493296124235</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.310936141523862</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.06511814222192</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,62</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,93; 9,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 9,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; 7,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 5,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-34,21; 56,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-30,5; 52,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,8; 47,64</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-45,03; 30,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.8247257380552625</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.039040177322081</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.302891422322707</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.490363444050087</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.03936435645981914</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.04399758694858551</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1441929545689619</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2027913434757054</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-24,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-52,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-16,47%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.569478292540396</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.903149742422164</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.43472758723016</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-15.66289786939721</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3717849831753888</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.303626044064338</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4781321145319981</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4637147793275321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,09; 3,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 10,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; -5,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; 5,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-54,03; 29,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,28; 91,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-75,16; -23,48</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,72; 36,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.329745732944478</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.794040369109736</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.8338817038713</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.319910611425448</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5143434770867571</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5166214227433725</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4079354016279649</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2745893248016543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.032610281352152</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.022109607054354</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.14085807793513</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.848729111805157</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1571253654252865</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.11824815430641</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5237979716487168</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1373649965527045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.13900276872529</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.258432220808667</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.69821719077279</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.52298446846079</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4953543489548365</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2887582289302298</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7446363875821689</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4569454471369562</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.348503895855585</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.40052561325983</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-4.721931003674134</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.319783147013649</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5031810044714132</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.01899992610787</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.2320704829114507</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3901731333524751</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,8%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-29,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-9,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 4,17</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 5,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -0,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 5,52</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,71; 25,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 34,08</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-50,5; -2,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-35,6; 29,33</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.92157115037252</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.09918759538806166</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-6.842294037994814</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.831916999823819</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.09494157726932301</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.004782193613232008</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3036422544214005</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1213017983967976</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.563110053499633</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.385339607279968</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.54034117345362</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.12611392579332</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3450994560769943</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2629951437451317</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5128467832859581</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.37839699412509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.219303378297719</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.022421445321979</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.6166930536847355</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.391649015331067</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2517074989430331</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3407186773323516</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.03115849453178171</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2153796449330485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
